--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_31.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_31.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
   <si>
     <t>STR</t>
   </si>
@@ -135,21 +135,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Robert G</t>
-  </si>
-  <si>
-    <t>04/06/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r583417488-Comfort_Inn_Suites-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40095</t>
+  </si>
+  <si>
+    <t>235218</t>
+  </si>
+  <si>
+    <t>583417488</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Staff is great</t>
+  </si>
+  <si>
+    <t>Staff here is stellar. They were always very nice. The room itself was a disappointment. It smelled of smoke, even though it was a non smoking room and it stayed really damp from the humidity. The location is convenient but I doubt I would stay again. Also (no reflection on the staff) at some point someone plugged the exhaust in the bathroom with tissue. Being overhead I wouldn't have noticed, but the boyfriend did so we pulled it out. Crazy, right?</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r581394517-Comfort_Inn_Suites-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>581394517</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Awesome Agent, Tara</t>
+  </si>
+  <si>
+    <t>Great customer service from Tara at the front desk. She welcomed me with a big smile and helped check me in in the best way possible. Will definitely come back again, and recommend to friends and family. Thank you Tara for your help.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Kevin P, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Great customer service from Tara at the front desk. She welcomed me with a big smile and helped check me in in the best way possible. Will definitely come back again, and recommend to friends and family. Thank you Tara for your help.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r569365922-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
-    <t>40095</t>
-  </si>
-  <si>
-    <t>235218</t>
-  </si>
-  <si>
     <t>569365922</t>
   </si>
   <si>
@@ -165,21 +210,15 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Kevin P, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded 5 days ago</t>
-  </si>
-  <si>
-    <t>Responded 5 days ago</t>
+    <t>Kevin P, Manager at Comfort Inn &amp; Suites, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
   </si>
   <si>
     <t>We got here very tired after a long day of travel in heavy rain storms.  We made our reservation while passing Mobile AL,  but were about an hour longer than we estimated.  Arrival was great, Room was great, Breakfast was good. Price was under $100, and with the on site Tesla charger, we charged overnight and were ready to go in the morning.  The Tesla App says that it is 8 kw, but we found that it was 16.  (about 6 hours to a 90% limited charge in an S 85D that was down to 12%)  They also have chargers for other electric vehicles available.This is not a top tier hotel, but it was outstanding for the class and was more than we needed.  We were completely satisfied.More</t>
   </si>
   <si>
-    <t>Susana G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r551213437-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -201,9 +240,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>PatMcMahon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r543249995-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -231,9 +267,6 @@
     <t>the hotel is renovating its breakfast area and is telling guests to "make a plate of food and take it back to your room to eat."No one should book this hotels without knowing that fact! And, the hotel should be advising people what is going on with the renovation. They are hiding it.More</t>
   </si>
   <si>
-    <t>_allan_kroll</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r534145654-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -249,9 +282,6 @@
     <t xml:space="preserve">This hotel is a very nice hotel to stay at. it is near the interstate and has places to eat around it. The hotel staff is always great and the rooms are nice. It has very comfortable beds and pillows. </t>
   </si>
   <si>
-    <t>CIfreo1984</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r525763897-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -273,9 +303,6 @@
     <t>My husband and I booked this hotel at the last minute in order to be close to Slidell.  Had to be with my father at a dr. appt super early so thought would get close since we live an hour away.  All we did was sleep since we got there after 8 pm and were gone by 4:30 am the next morning.  I would of given this hotel four stars, but they are under renovations (according to signs) so that brought them down.  Cannot comment on anything except the room since didn't use any other services.  Hotel was clean, room was clean, all was good.  Have to say it made me super happy that the cleaning people took the shower curtain and pulled it thru the hand bar to make a decoration of it.  Wish I had thought to take a pic.  Just thought it was super nice they did that.  After a tiring long drive, it sure made me smile.  Located by the interstate, so really easy access.  Our AC was a bit noisy but again was so tired didn't really matter.  So hopefully after the renovations this hotel will be even better.  Was across from Holiday Inn but was $20 cheaper.  Worked for us.More</t>
   </si>
   <si>
-    <t>Caraduras</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r524181809-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -297,9 +324,6 @@
     <t>For me, the difference between a 4 and a 5 rating is not the number of stars by its name, but it's in the details.  At the Comfort Inn and Suites I was always kindly greeted when I entered the lobby, coming and going.  This morning the front desk attendant complimented me on my shirt.  Nothing special, just a friendly reminder that everyone enjoys a compliment.I found the room well furnished and clean.  The bed was very comfortable and I appreciated that they had pillows with several different firmness.  Another thoughtful detail.  Although there were signs excusing the remodeling dust, I didn't see any effects of this on the third floor.  Breakfast was adequate and the access from highway 12 made it convenient.  If I could do one thing to make it better it would be to upgrade the coffee service in the lobby, but Starbucks was not far away.  Enjoyed my stay.More</t>
   </si>
   <si>
-    <t>WhoDat-G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r509171326-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -321,9 +345,6 @@
     <t>This review is more about the customer service than the actual hotel as I had my technician stay there and I wasn't there.  I Put two of my techs here, last minute, after another hotel in town initials being HI, would not work with me to check them in due to them not being the main name on the res (but listed as additional guest) and me being across the lake and during a flood unable to go over there and check them.After the other hotel (HI) was very rude on the phone, i told her to cancel the rez and i called comfort inn to see if they could help and what needed to be done for me to get my guys in there without me being there. Kevin was the Comfort inn person that I spoke to.  He assured me he could help me emailed me the form I needed and he had my guys checked in within 10 minutes. Kevin did everything he could to help me get my team taken care of snd was very professional, courteous and knowledgeable and new exactly what he needed to do.  even though we are diamond members of that other chain, I will take our business in Covington Louisiana to the comfort inn now!More</t>
   </si>
   <si>
-    <t>texasinsc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r504922746-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -342,9 +363,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>harry b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r478684199-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -363,9 +381,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Management response:Responded April 26, 2017</t>
   </si>
   <si>
@@ -375,9 +390,6 @@
     <t>sat night 4/22 on the way home Lady at front desk said only had room with two beds, she was very nice and did a great job. When I got to room it was a handicap room and was super cold AC was on 67 then I noticed the smell thought it may be cleaner. I did not complain but then was woke up at around 8:00 with the fire alarm going off for a good 30 min I packed up and left. I told a lady at front desk about the smell, I was all stoped up now, she was rude anyway I feel they know the room stank and rented it anyway had the AC turned down so low to mask the smell. More</t>
   </si>
   <si>
-    <t>TOG11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r455508425-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -396,9 +408,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>WhereverYouleadme</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r445447805-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -417,9 +426,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>cem44</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r433276172-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -441,9 +447,6 @@
     <t>My wife and I stayed here on two nights, on the way to and from our final destination.  We found the property to be very conveniently located, yet off the main highway enough to be very quiet.  The property is attractive, both inside and out.  Our room was spacious, in good repair and very clean.  We especially appreciated the large bath towels and actual exhaust fan in the well-appointed bathroom (often missing in rooms we have stayed in elsewhere).  The breakfast area.  The staff was very pleasant and the free buffet breakfast in the morning had a good variety of tasty options that were kept well-stocked.  Our only complaint about our stays was that the toilet paper was some of the roughest we had ever encountered; a few dollars spent on a higher quality would make this place just about perfect.More</t>
   </si>
   <si>
-    <t>aussiebill42</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r427744683-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -459,9 +462,6 @@
     <t>Decided to stop off in Covington and called into the Comfort Suites got a great price for the nightRoom was spotless great size breakfast in the morning very filling with everything needed to start the dayLocation easy on and off the interstate with lots of food establishments at the exit or the next one alongStaff were great check in staff most welcoming would stay here again if ever passing through.</t>
   </si>
   <si>
-    <t>Speedy77089</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r426609459-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -480,9 +480,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>jdkittrell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r411000259-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>We had stayed at Comfort Suites by I-12 several months ago, but they are much more expensive than this Comfort Inn &amp; Suites. I was concerned if it would be the same quality, and it was better! We arrived late on a Sunday and the desk clerk greeted us like we were regular customers. She smiled and offered to even help us with our luggage. Professional the whole time. Great night's sleep, and very good breakfast.More</t>
   </si>
   <si>
-    <t>Gene B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r395094617-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -528,9 +522,6 @@
     <t>Stopped for one night on our way out west. Front desk clerk was very friendly. Room was clean and comfortable at a reasonable price. Close to many restaurants and shopping. A big plus was coffee available 24 hours a day.</t>
   </si>
   <si>
-    <t>whitegs</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r372137744-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -549,9 +540,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>ostan14</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r370092244-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -567,9 +555,6 @@
     <t>I fell in love with the bed! It was so comfy, had a great nights sleep. Apart from the bed, the room was massive, modern and super clean. Wifi fast. Location was great, not far from highway, but really quiet. There are a few stores within walking distance.Can really recommend.</t>
   </si>
   <si>
-    <t>Lise A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r336932329-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -588,9 +573,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Vlacy2222</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r334621031-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -609,9 +591,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Chloe T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r331896186-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -627,9 +606,6 @@
     <t>This is a nice Comfort Inn &amp; Suites, has the usual amenities, and very comfortable beds. It's not fancy, but more than adequate for an overnight, or two, stay. I was able to easily locate and access everything I needed to find in the Covington area from the hotel, and if I couldn't, the staff was more than willing to help. Our room was quiet and clean. As a solo traveler, felt very safe here. Would recommend and stay here again.</t>
   </si>
   <si>
-    <t>Phil G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r330999375-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -648,9 +624,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>MissShoe</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r327472904-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -666,9 +639,6 @@
     <t>Spacious, clean, with comfortable beds, and a great value by booking online.  Just what we wanted.  It's hard to find decent motels/hotels in the $59-79 price range on our car trips.  When you're passing through, it makes me crazy to pay $89 and up for a dumpy motel.  This one was much nicer, and even included a decent breakfast (with waffles, a bit above the usual continental offerings) and chocolate chip cookies upon arrival.</t>
   </si>
   <si>
-    <t>o2beinpa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r322459441-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -690,9 +660,6 @@
     <t>I found this hotel to be very nice.  We arrived around 10:30 pm. The lady that checked us in was very nice and so was the lady checking us out.  - no problems checking in or out. Our room was clean, but it did smell musty. Housekeeping did a great job while we were there. The only complaint I do have was the breakfast lady was rude. I asked her if there was spray for the waffle iron and she mumble something under her breath and left. The coffee area had spilled milk all over to the point I had to get a napkin and wife it off to make my coffee. The breakfast area was unkept with food laying on the side of the servers. Breakfast was ok, better then most. The area has a lot to offer and there was parking available. We would stay there again. More</t>
   </si>
   <si>
-    <t>frog20051</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r316067911-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -711,9 +678,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Gerardo G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r307124350-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -729,9 +693,6 @@
     <t xml:space="preserve">I honestly cannot see how anyone would rate this as anything but terrible. The person at the desk was helpful but the rooms were awful. And we tried 3 different rooms including a suite that was going to be discounted. They were ALL damp! The comforters, floors the entire hotel smelled and was damp. I can't see how anyone could sleep there. Do yourself a favor and go somewhere else. </t>
   </si>
   <si>
-    <t>Tamara W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r296924685-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -753,9 +714,6 @@
     <t>My husband, son, and I stay here for two days while visiting family. The room was clean, but housekeeping left a bottle of the cleaner in the bathroom. Breakfast was hot with the standard fare: plain &amp; vegetable omelets, bacon, sausage, make-your-own waffles: cold cereal, yogurt, instant oatmeal, bread/bagels and pastries. Breakfast was better on the first day; the second day the eggs were a little overdone for me. We use the pool which is small and outdoors with not much shade but was fine for our us. It is within walking distance of a small shopping area/strip mall with a Subway &amp; Chinese buffet among other things. Would stay there again unless I found a much better deal elsewhere. It is directly across from a Holiday Inn Express which is quite a bit larger.More</t>
   </si>
   <si>
-    <t>Hunda</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r294382856-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -777,9 +735,6 @@
     <t>Lovely big room,very clean, though too close to ice machine csomfery noisy all night....room 115. Staff very friendly and helpful re restaurants nearby. Breakfast excellent, great choice of cereals, waffles, pastries, juice, coffee, tea, yogurt, hot bacon, eggs, sausage, toast.....lovely choice. Only criticism would be that I tried to print driving directions and found the printer out of ink, the receptionist said she did not have any and printed it off for me but I suspect this is a permanent situation, I did have something else I wanted to print but it became too complicated when I could not do it myself.....if they advertise a business centre they should maintain it.More</t>
   </si>
   <si>
-    <t>Kenneth N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r283596567-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -798,9 +753,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>Virginia H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r278739642-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -816,9 +768,6 @@
     <t xml:space="preserve">We received a free upgrade, and our room smelled soo good! Best smelling hotel room I have ever been in. The staff was super nice and everything was pretty much perfect. The breakfast was free in the a.m. and it had a huge variety of foods and beverages.  This is going to be our go to hotel if we are ever in covington.  </t>
   </si>
   <si>
-    <t>Robert C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r271511168-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -858,9 +807,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>Keith C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r252670789-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -879,9 +825,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Dianne7602</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r250909283-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -906,9 +849,6 @@
     <t>This is the place to stop if you are traveling on Interstate 12.  It gets top marks for clean, comfortable, nice and helpful staff, great bed; an overall great value.  Of course there has to be a however; and that however is the breakfast.  Very minimal - no biscuits, no gravy, not even any instant oatmeal or grits and no fruit of any kind.  Stil, will stay here again when in the area.More</t>
   </si>
   <si>
-    <t>Kathy H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r238733517-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -933,9 +873,6 @@
     <t>Suite was very clean and comfortable. Hot breakfast every morning is a fantastic plus. Washer, dryer,workout room and pool are among the amenities. The only negative I have is where the toilet paper holder is located - unless your arm is 6 feet long, you really can't reach the tp. :(The Inn is conveniently located with easy access to Rt 190 and Interstate 12, Interstate 10 and the Causeway.More</t>
   </si>
   <si>
-    <t>mmjmb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r232973911-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -951,9 +888,6 @@
     <t>Hotel is clean and conveniently located right off the main highway (so quiet).  Room was spacious and fresh.  Breakfast was OK; hot waffles always a treat - everything else more than adequate.  Staff was attentive and price was very reasonable.  Would definitely stay again.</t>
   </si>
   <si>
-    <t>nanetterota</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r228100083-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -969,9 +903,6 @@
     <t xml:space="preserve">With what I do for a living "Exterminator" For Terminix. I'm very picky where I stay.  The room was clean.  The mattresses were clean,  super big plus in my book.  The breakfast was very good.  The staff , everyone we met were very helpful and friendly.  We usually stay in 5 star hotels but tried this since it was 1am and decided why not I am going to inspect it first anyway.  So glad we did.  </t>
   </si>
   <si>
-    <t>jdgpe</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r216942134-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -990,9 +921,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>luvnlife007</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r212713882-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1011,9 +939,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>keystoneTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r212547658-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1032,9 +957,6 @@
     <t>The room was nice and a fair size. The room rate with the discount was acceptable.Usually the Choice Hotels Comfort Inn &amp; Suites are a grade up from the Inns; however, this one lacks that grade. The room wasn't very well kept. There were tags from clothing on the floor in the closet showing no vacuuming effort of the floors. The toilet bowel had a ring inside the bowel indicating lack of proper cleaning. The staff was excellent for kindness and response. The desk clerk on duty took care of our complaints in a timely manner--he was the only one on duty! He was very helpful giving us directions to a local "mom &amp; pop" restaurant that served reasonable priced food that was of excellent quality. The breakfast area was reasonably clean and the (hot)food with eggs was acceptable.More</t>
   </si>
   <si>
-    <t>Kctravelers79</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r211577766-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1050,9 +972,6 @@
     <t>My husband, I, and our four daughters had originally wanted to spend the night near New Orleans (en route to Florida from KC) but all rooms were sold out. They referred us to this comfort inn.  I felt very safe in the area. The rooms were clean.  The only drawback is the hallways, they need better ventilation. Otherwise a good place to stay the night.</t>
   </si>
   <si>
-    <t>RRRRobin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r211339501-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1071,9 +990,6 @@
     <t>Firstly to say, I thought the staff I met were very nice and the room was great, clean, large and well appointed, but the breakfast buffet was terrible, greasy meat and watery eggs, but the worst thing about it, everything is served on polystyrene plates and cups with plastic cutlery. The waste from this and all the other comfort inns doing the same around the country must be enormous. Living in Europe this is really shocking to me, how such a log business can be so socially irresponsible and get away with it is amazing to me. This would never be acceptable in Europe- I'm not ever sure if it's legal to be honest. Wake up and take some responsibility comfort inn!!! Rant over! FewMore</t>
   </si>
   <si>
-    <t>Donna M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r208521442-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1095,9 +1011,6 @@
     <t>My husband travels with his job and our 2 y/o daughter and myself tag along. Our room was nice and spacious and very clean. The breakfast was really nice, good selection. Most of the staff was SUPER FRIENDLY. So glad they gave us suggestions of places to go and where to eat. The only complaint I had was one lady that worked the front desk in the evening, she wasn't very nice. I called down to get a crib for my daughter and she told me it would be a $10 charge. I said that's not what your Directory of Service book says. I said it states if you need a crib its free of charge and if you need a rollaway bed that's a $10 charge. She said, well we don't have any cribs, but I guess I could look and call you back. No call back and the next morning we asked the front desk and got we got a crib delivered to us within 20 mintues!! Over all we had a great stay and we would stay again if we are in the area!More</t>
   </si>
   <si>
-    <t>scotiajim</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r201401749-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1116,9 +1029,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>keeper1231</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r198458916-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1137,9 +1047,6 @@
     <t>Hotel is fairly new and in a good safe area.  The hotel and the room where clean, and quite.  The beds are nice, not to hard or soft. The morning breakfast had hot and cold items kept stock.  The pool looked nice but is outside and weather didn't permit us to enjoy. The appliances in the room seem to be beat up a little but functioned.  The hotel has laundry service room, but only 1 washer and 1 dryer so this could be an issue for some.  The hotel staff is nice, polite, and helpful about our questions concerning dinning.  There is dinning options from asian to fast food within walking distance.  I would recommend to anyone needing a hotel in this area. I would say the only negative is that the carpet on the 2nd floor needs replacing and general housekeeping in the public area could be improved.More</t>
   </si>
   <si>
-    <t>Peshtigo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r198069014-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1155,9 +1062,6 @@
     <t>We spent two nights. Staff, excellent. Room, very good. Bed , excellent. Breakfast, very good. I recommend this hotel for its price, location and for a good night's stay.We bicycled the Tammany Trace end to end and this hotel is strategically located for access to the trace.</t>
   </si>
   <si>
-    <t>dinabwilson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r194791303-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1179,16 +1083,19 @@
     <t>I got a good price booking and paying for this on-line ahead of time. The hotel looked pretty new. We got a non-smoking king room on the first floor however the AC was rattling pretty bad so I requested a new room. The receptionist was so kind, thanking me for letting her know and quickly moved me to another room a few doors down. She was very professional and apologetic. Our bed was very comfortable, great pillows. I hate when I get those flat pillows and have to double them up, or sometimes getting such a puffy pillow that my neck hurts in the morning. The room had a microwave, fridge, flat screen TV, desk and smallish bathroom. Everything was spotless and it was very quiet. The only complaint was that breakfast should have been longer as most other hotels have their food out until 10 a.m. We got breakfast at close to 9 am and they started cleaning it out about 10 minutes later! I recommend eating dinner at Copeland's right in front of the hotel. More</t>
   </si>
   <si>
-    <t>Brad B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r194673202-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
     <t>194673202</t>
   </si>
   <si>
-    <t>Jeffn92</t>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>a little above average</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights. We thought it was fairly quiet. Like many hotels in the middle range construction workers stay here. They get up in the early hours and they don't tiptoe.The place is ready for a update. I would suggest that they have those silent door closers installed.I thought the staff was nice and the rooms were clean. The breakfast was just ok.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r177438679-Comfort_Inn_Suites-Covington_Louisiana.html</t>
@@ -1206,9 +1113,6 @@
     <t xml:space="preserve">I booked this online and the pictures on choice hotels web site are not current. The rooms have been remodeled and updated with new HD flat screen TV's and the beds are also new. Room was very clean and staff was very friendly. Will stay here again.  </t>
   </si>
   <si>
-    <t>Tammy L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r172794110-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1230,9 +1134,6 @@
     <t>The only nice thing I can say about this particular Comfort Suites is the second shift gal. She was superb. The gal went above and beyond her duties to ensure our visit was comfortable. Sadly, the day shift was rude and unwilling to help with small requests; such as, replacing a broken coffee pot. We were told that coffee was being served in the breakfast room. I did request the pot once more and the man finally went to locate one. The day clerk insisted we bring our used towels  to her at the front desk when we requested more towels. The attitudes of the day folks was not professional at all and borderlined upon major rudeness.This particular Comfort Inn has some major issues with the building. Faulty outlets, damp carpet every where and a horrible smell (mold). After staying at the Comfort Inn &amp; Suites in Athens TN, this one was a shock and disappointment. The only reason we continued to stay here is the gal on the night shift. She is an excellent and top notch employee. By the way, our stay was four nights, not just an in/out stay. Before I end this critique, I have to add  ... the house keepers were fantastic in ensuring we had the supplies we needed with a smile and great attitude.More</t>
   </si>
   <si>
-    <t>paddend</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r166839540-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1269,9 +1170,6 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>jmwood73</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r140294984-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1290,9 +1188,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Deliastravels</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r136502765-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1311,9 +1206,6 @@
     <t>My husband and I stayed here august 3rd. The desk staff were friendly. They had a luggage cart for all our things by the front door which was convenient. After settling into our room, I went out to lobbby to get a cup of coffee which wasn't hot. The rooms lighting was dim, the bathroom vent was very loud and didn't do a good job eliminating the steam. They had bedspreads on each of the beds which in my opinion is a bad idea since they wouldn't be washed when a new guest arrives so I took them off the beds and left housekeeping a note instructing them to NOT put them back on our beds and they complied. The furniture was old but functional. The hallway carpet sure needed updating and the ice machine was leaking through the wall and onto the lobby floor. Not sure if we will stay here again.More</t>
   </si>
   <si>
-    <t>fishnips</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r132107545-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1329,9 +1221,6 @@
     <t>With our late check-in,we quickly were given a room. Not luxurious, but that's not what we paid for. It suited our needs for this quick stay. Well-kept, clean room. The only negative for the room, was the loud bathroom fan when lights were turned on. The breakfast was well stocked and had enough room for families to sit. Would stay here again, if passing through. Location is set back off mainroad, don't miss, lights extremely long at intersections</t>
   </si>
   <si>
-    <t>railroadpro</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r125680151-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1353,9 +1242,6 @@
     <t>We chose this hotel for it's proximity to the Tammany Trace, which extends from Covington to Slidell via Abita Springs and Mandeville. If you come to ride the Trace, there are nice facilities at Abita Springs and at Mandeville for parking your car or truck and beginning your bike ride. As for the Comfort Inn &amp; Suites, check-in was perfect and the room was clean and comfortable. The exterior of the Inn is well kept as are the hallways, lobby and breakfast area. A large flat screen TV was in the room and fully functional. A refrigerator with a small freezer section, a microwave, and a coffee maker were also in place. A nice desk with a good office chair and good wi-fi connections rounded out our accomodations. The included breakfast was perfect with a couple of very pleasant and efficient ladies attending. Waffles, cereals, muffins, bagels, eggs and sausage were all fresh and available. Yogurt, juice, milk and coffee completed the service.This is a clean and comfortable property with plenty of restaurants and shopping nearby. We were able to use Choice Privilege points for our stay, (which IMHO is the best hotel loyalty program there is) but this would be a good choice anyway.More</t>
   </si>
   <si>
-    <t>Brandi W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r125276768-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1377,9 +1263,6 @@
     <t>We recently had our roller derby team stay there and they were very accommodating.  Great breakfast in the morning and very nice rooms.  We personally only came into contact with only two front desk staff in the two days we were there and one was Candice and she was wonderful.  The overnight guy could be a bit friendlier, but hey....he's the overnight guy.  The housekeeper on our floor was even very sweet and didn't even give me an attitude when one of our rooms changed their mind on whether to get housekeeping that day or not.  I've been in customer service for a while and these people definitely had some good staff.  I have to say the only real complaint I have is how far away the toilet paper holder was away from the toilet.  I'm glad I'm tall with long arms cause anyone else would have to get up and travel!  Lol.  Great experience.  Thanks for having us.  We'll be back!More</t>
   </si>
   <si>
-    <t>nolaqueen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r117096266-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1398,9 +1281,6 @@
     <t>January 2011</t>
   </si>
   <si>
-    <t>croche3179</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r115846668-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1419,9 +1299,6 @@
     <t>July 2011</t>
   </si>
   <si>
-    <t>jdwheel1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r88913444-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1443,9 +1320,6 @@
     <t>Good quiet location away from the main highway but still good access.  Several mid-range eateries nearby.  Good value for the money in hthis somewhat high-priced area north of New Orleans.  Freindly staff and clean spaces.  WiFi has good signal and the toll free tech support was promt and helpful (a surprise).  Even after we turned on all of the lights (flourescent bulbs) the room was dark.  The hotel seems cheaply built - when you walk down the hall on the second floor, you can hear your footsteps and feel the floor give (no trouble with sound in the rooms however).  Carpeting and walls looked fresh.  Standard Comfort Inn amenities, but breakfast area seems small.To the casual observer, it looks like a "new" (or recently fully rennovated) hotel but upon closer inspection the new things are more cosmetic with a lot of older items still there.  For example, many of the windows (non-operable) have significant haze between the panes; the blackout curtains have the lining rotting away allowing many spots of light to filter through; the finish of kleenex dipenser in the bath is mottled with rust; the phone was missing its coverplate and information screen; the TV is an old 32 tube model.More</t>
   </si>
   <si>
-    <t>Misapplied</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r83539023-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1464,9 +1338,6 @@
     <t>October 2010</t>
   </si>
   <si>
-    <t>houbrm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r65427178-Comfort_Inn_Suites-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1483,9 +1354,6 @@
   </si>
   <si>
     <t>May 2010</t>
-  </si>
-  <si>
-    <t>CaliforniaEd</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d235218-r35529128-Comfort_Inn_Suites-Covington_Louisiana.html</t>
@@ -2002,563 +1870,531 @@
       <c r="A2" t="n">
         <v>44137</v>
       </c>
-      <c r="B2" t="n">
-        <v>635</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" t="s">
-        <v>51</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>44137</v>
       </c>
-      <c r="B3" t="n">
-        <v>16538</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" t="s">
+        <v>56</v>
+      </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>44137</v>
       </c>
-      <c r="B4" t="n">
-        <v>16539</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="n">
         <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>44137</v>
       </c>
-      <c r="B5" t="n">
-        <v>16540</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>44137</v>
       </c>
-      <c r="B6" t="n">
-        <v>16541</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>44137</v>
       </c>
-      <c r="B7" t="n">
-        <v>16542</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>44137</v>
       </c>
-      <c r="B8" t="n">
-        <v>16543</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>44137</v>
       </c>
-      <c r="B9" t="n">
-        <v>16544</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>44137</v>
       </c>
-      <c r="B10" t="n">
-        <v>16545</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2569,202 +2405,178 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>116</v>
-      </c>
-      <c r="X10" t="s">
-        <v>117</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>44137</v>
       </c>
-      <c r="B11" t="n">
-        <v>16546</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>44137</v>
       </c>
-      <c r="B12" t="n">
-        <v>16547</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>44137</v>
       </c>
-      <c r="B13" t="n">
-        <v>16548</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>4</v>
@@ -2775,59 +2587,55 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>44137</v>
       </c>
-      <c r="B14" t="n">
-        <v>16549</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
         <v>5</v>
       </c>
@@ -2842,66 +2650,62 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>44137</v>
       </c>
-      <c r="B15" t="n">
-        <v>16550</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
       </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2909,63 +2713,59 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>44137</v>
       </c>
-      <c r="B16" t="n">
-        <v>16551</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2973,130 +2773,124 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>161</v>
-      </c>
-      <c r="X16" t="s">
-        <v>162</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>44137</v>
       </c>
-      <c r="B17" t="n">
-        <v>10814</v>
-      </c>
-      <c r="C17" t="s">
-        <v>164</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>44137</v>
       </c>
-      <c r="B18" t="n">
-        <v>16552</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -3105,134 +2899,126 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>160</v>
+      </c>
+      <c r="X18" t="s">
+        <v>161</v>
+      </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>44137</v>
       </c>
-      <c r="B19" t="n">
-        <v>171</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>44137</v>
       </c>
-      <c r="B20" t="n">
-        <v>16553</v>
-      </c>
-      <c r="C20" t="s">
-        <v>183</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3240,64 +3026,60 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>44137</v>
       </c>
-      <c r="B21" t="n">
-        <v>16554</v>
-      </c>
-      <c r="C21" t="s">
-        <v>190</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3305,64 +3087,62 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>44137</v>
       </c>
-      <c r="B22" t="n">
-        <v>16555</v>
-      </c>
-      <c r="C22" t="s">
-        <v>197</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3370,66 +3150,60 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>44137</v>
       </c>
-      <c r="B23" t="n">
-        <v>16556</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3437,66 +3211,60 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>44137</v>
       </c>
-      <c r="B24" t="n">
-        <v>16557</v>
-      </c>
-      <c r="C24" t="s">
-        <v>210</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="O24" t="s">
-        <v>49</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3504,127 +3272,125 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>44137</v>
       </c>
-      <c r="B25" t="n">
-        <v>16558</v>
-      </c>
-      <c r="C25" t="s">
-        <v>216</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>44137</v>
       </c>
-      <c r="B26" t="n">
-        <v>16559</v>
-      </c>
-      <c r="C26" t="s">
-        <v>224</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3632,54 +3398,50 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>44137</v>
       </c>
-      <c r="B27" t="n">
-        <v>16560</v>
-      </c>
-      <c r="C27" t="s">
-        <v>231</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3693,115 +3455,113 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>44137</v>
       </c>
-      <c r="B28" t="n">
-        <v>16561</v>
-      </c>
-      <c r="C28" t="s">
-        <v>237</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>44137</v>
       </c>
-      <c r="B29" t="n">
-        <v>16562</v>
-      </c>
-      <c r="C29" t="s">
-        <v>245</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3815,54 +3575,50 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>44137</v>
       </c>
-      <c r="B30" t="n">
-        <v>16563</v>
-      </c>
-      <c r="C30" t="s">
-        <v>253</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3876,54 +3632,50 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>44137</v>
       </c>
-      <c r="B31" t="n">
-        <v>11526</v>
-      </c>
-      <c r="C31" t="s">
-        <v>260</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3937,193 +3689,173 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>44137</v>
       </c>
-      <c r="B32" t="n">
-        <v>7549</v>
-      </c>
-      <c r="C32" t="s">
-        <v>266</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>44137</v>
       </c>
-      <c r="B33" t="n">
-        <v>16559</v>
-      </c>
-      <c r="C33" t="s">
-        <v>224</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>44137</v>
       </c>
-      <c r="B34" t="n">
-        <v>15337</v>
-      </c>
-      <c r="C34" t="s">
-        <v>280</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="J34" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="K34" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -4134,330 +3866,306 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>44137</v>
       </c>
-      <c r="B35" t="n">
-        <v>16564</v>
-      </c>
-      <c r="C35" t="s">
-        <v>287</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="J35" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="K35" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="O35" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>293</v>
-      </c>
-      <c r="X35" t="s">
-        <v>294</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>44137</v>
       </c>
-      <c r="B36" t="n">
-        <v>4080</v>
-      </c>
-      <c r="C36" t="s">
-        <v>296</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>302</v>
-      </c>
-      <c r="X36" t="s">
-        <v>303</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>44137</v>
       </c>
-      <c r="B37" t="n">
-        <v>16565</v>
-      </c>
-      <c r="C37" t="s">
-        <v>305</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="J37" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="K37" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s">
-        <v>115</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>274</v>
+      </c>
+      <c r="X37" t="s">
+        <v>275</v>
+      </c>
       <c r="Y37" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>44137</v>
       </c>
-      <c r="B38" t="n">
-        <v>16566</v>
-      </c>
-      <c r="C38" t="s">
-        <v>311</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="J38" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="K38" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="L38" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>282</v>
+      </c>
+      <c r="X38" t="s">
+        <v>283</v>
+      </c>
       <c r="Y38" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>44137</v>
       </c>
-      <c r="B39" t="n">
-        <v>16567</v>
-      </c>
-      <c r="C39" t="s">
-        <v>317</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I39" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="J39" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="K39" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="O39" t="s">
-        <v>49</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
       <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4465,70 +4173,62 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>44137</v>
       </c>
-      <c r="B40" t="n">
-        <v>16568</v>
-      </c>
-      <c r="C40" t="s">
-        <v>324</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="J40" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="s">
-        <v>330</v>
-      </c>
-      <c r="O40" t="s">
-        <v>60</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4536,70 +4236,62 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>44137</v>
       </c>
-      <c r="B41" t="n">
-        <v>16569</v>
-      </c>
-      <c r="C41" t="s">
-        <v>331</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I41" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="K41" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="L41" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="O41" t="s">
-        <v>49</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
         <v>3</v>
       </c>
       <c r="R41" t="n">
         <v>4</v>
       </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4607,59 +4299,59 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>44137</v>
       </c>
-      <c r="B42" t="n">
-        <v>16570</v>
-      </c>
-      <c r="C42" t="s">
-        <v>338</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="J42" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="K42" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="L42" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>306</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -4674,66 +4366,66 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>44137</v>
       </c>
-      <c r="B43" t="n">
-        <v>16571</v>
-      </c>
-      <c r="C43" t="s">
-        <v>344</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="J43" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="L43" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+      <c r="N43" t="s">
+        <v>306</v>
+      </c>
+      <c r="O43" t="s">
+        <v>48</v>
+      </c>
       <c r="P43" t="n">
         <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
         <v>3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4741,70 +4433,62 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>44137</v>
       </c>
-      <c r="B44" t="n">
-        <v>7433</v>
-      </c>
-      <c r="C44" t="s">
-        <v>351</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I44" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="J44" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="K44" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="L44" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>357</v>
-      </c>
-      <c r="O44" t="s">
-        <v>91</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
       <c r="P44" t="n">
         <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4812,57 +4496,49 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>44137</v>
       </c>
-      <c r="B45" t="n">
-        <v>16572</v>
-      </c>
-      <c r="C45" t="s">
-        <v>359</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I45" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="J45" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="K45" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
-      <c r="N45" t="s">
-        <v>365</v>
-      </c>
-      <c r="O45" t="s">
-        <v>49</v>
-      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
       <c r="P45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
         <v>4</v>
@@ -4871,7 +4547,7 @@
         <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
@@ -4883,66 +4559,62 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>44137</v>
       </c>
-      <c r="B46" t="n">
-        <v>16573</v>
-      </c>
-      <c r="C46" t="s">
-        <v>366</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I46" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="J46" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="K46" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
         <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -4954,70 +4626,66 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>44137</v>
       </c>
-      <c r="B47" t="n">
-        <v>16574</v>
-      </c>
-      <c r="C47" t="s">
-        <v>373</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="J47" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="K47" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
         <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -5025,242 +4693,257 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>44137</v>
       </c>
-      <c r="B48" t="n">
-        <v>16575</v>
-      </c>
-      <c r="C48" t="s">
-        <v>379</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I48" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="J48" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="K48" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="L48" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="O48" t="s">
-        <v>49</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>44137</v>
       </c>
-      <c r="B49" t="n">
-        <v>246</v>
-      </c>
-      <c r="C49" t="s">
-        <v>387</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s">
-        <v>389</v>
-      </c>
-      <c r="J49" t="s"/>
-      <c r="K49" t="s"/>
-      <c r="L49" t="s"/>
-      <c r="M49" t="s"/>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>336</v>
+      </c>
+      <c r="O49" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>44137</v>
       </c>
-      <c r="B50" t="n">
-        <v>15242</v>
-      </c>
-      <c r="C50" t="s">
-        <v>390</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I50" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="J50" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="K50" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="L50" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+      <c r="N50" t="s">
+        <v>353</v>
+      </c>
+      <c r="O50" t="s">
+        <v>48</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>44137</v>
       </c>
-      <c r="B51" t="n">
-        <v>5582</v>
-      </c>
-      <c r="C51" t="s">
-        <v>396</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I51" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="J51" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="K51" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
         <v>3</v>
       </c>
-      <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5268,66 +4951,58 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>44137</v>
       </c>
-      <c r="B52" t="n">
-        <v>16576</v>
-      </c>
-      <c r="C52" t="s">
-        <v>404</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I52" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="J52" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="K52" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s">
-        <v>410</v>
-      </c>
-      <c r="O52" t="s">
-        <v>60</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
@@ -5339,330 +5014,314 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>44137</v>
       </c>
-      <c r="B53" t="n">
-        <v>16543</v>
-      </c>
-      <c r="C53" t="s">
-        <v>93</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I53" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="J53" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="K53" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="L53" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>370</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="n">
         <v>3</v>
       </c>
-      <c r="N53" t="s">
-        <v>416</v>
-      </c>
-      <c r="O53" t="s">
-        <v>49</v>
-      </c>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>44137</v>
       </c>
-      <c r="B54" t="n">
-        <v>7368</v>
-      </c>
-      <c r="C54" t="s">
-        <v>417</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="J54" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="K54" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="L54" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="O54" t="s">
-        <v>91</v>
-      </c>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>44137</v>
       </c>
-      <c r="B55" t="n">
-        <v>16577</v>
-      </c>
-      <c r="C55" t="s">
-        <v>424</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="J55" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="K55" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="L55" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="O55" t="s">
-        <v>49</v>
-      </c>
-      <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>3</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>44137</v>
       </c>
-      <c r="B56" t="n">
-        <v>16578</v>
-      </c>
-      <c r="C56" t="s">
-        <v>431</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I56" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="J56" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="K56" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="L56" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+      <c r="N56" t="s">
+        <v>389</v>
+      </c>
+      <c r="O56" t="s">
+        <v>100</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>4</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>44137</v>
       </c>
-      <c r="B57" t="n">
-        <v>16579</v>
-      </c>
-      <c r="C57" t="s">
-        <v>437</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="J57" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="K57" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>443</v>
+        <v>389</v>
       </c>
       <c r="O57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5670,70 +5329,62 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>44137</v>
       </c>
-      <c r="B58" t="n">
-        <v>16580</v>
-      </c>
-      <c r="C58" t="s">
-        <v>445</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="J58" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="K58" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="L58" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s">
-        <v>451</v>
-      </c>
-      <c r="O58" t="s">
-        <v>153</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
         <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5741,66 +5392,66 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>44137</v>
       </c>
-      <c r="B59" t="n">
-        <v>16581</v>
-      </c>
-      <c r="C59" t="s">
-        <v>453</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I59" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="J59" t="s">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="K59" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="L59" t="s">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>459</v>
+        <v>406</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5808,66 +5459,66 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>44137</v>
       </c>
-      <c r="B60" t="n">
-        <v>16582</v>
-      </c>
-      <c r="C60" t="s">
-        <v>460</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I60" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="J60" t="s">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="K60" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="L60" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
       <c r="S60" t="n">
         <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5875,64 +5526,56 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>44137</v>
       </c>
-      <c r="B61" t="n">
-        <v>16583</v>
-      </c>
-      <c r="C61" t="s">
-        <v>467</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I61" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="J61" t="s">
-        <v>470</v>
+        <v>417</v>
       </c>
       <c r="K61" t="s">
-        <v>471</v>
+        <v>418</v>
       </c>
       <c r="L61" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>473</v>
+        <v>420</v>
       </c>
       <c r="O61" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
         <v>3</v>
       </c>
-      <c r="R61" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
       <c r="S61" t="n">
         <v>4</v>
       </c>
@@ -5946,70 +5589,62 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>44137</v>
       </c>
-      <c r="B62" t="n">
-        <v>16584</v>
-      </c>
-      <c r="C62" t="s">
-        <v>475</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I62" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="J62" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="K62" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="L62" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="O62" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>3</v>
-      </c>
-      <c r="R62" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -6017,70 +5652,66 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>44137</v>
       </c>
-      <c r="B63" t="n">
-        <v>16585</v>
-      </c>
-      <c r="C63" t="s">
-        <v>482</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I63" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="J63" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="K63" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="L63" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="O63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6088,70 +5719,66 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>487</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>44137</v>
       </c>
-      <c r="B64" t="n">
-        <v>16586</v>
-      </c>
-      <c r="C64" t="s">
-        <v>489</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="J64" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="K64" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="L64" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="O64" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
       </c>
       <c r="Q64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S64" t="n">
         <v>4</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -6159,7 +5786,141 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>494</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>44137</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" t="s">
+        <v>440</v>
+      </c>
+      <c r="G65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" t="s">
+        <v>441</v>
+      </c>
+      <c r="J65" t="s">
+        <v>442</v>
+      </c>
+      <c r="K65" t="s">
+        <v>443</v>
+      </c>
+      <c r="L65" t="s">
+        <v>444</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>445</v>
+      </c>
+      <c r="O65" t="s">
+        <v>48</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>44137</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s">
+        <v>446</v>
+      </c>
+      <c r="G66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66" t="s">
+        <v>447</v>
+      </c>
+      <c r="J66" t="s">
+        <v>448</v>
+      </c>
+      <c r="K66" t="s">
+        <v>449</v>
+      </c>
+      <c r="L66" t="s">
+        <v>450</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>451</v>
+      </c>
+      <c r="O66" t="s">
+        <v>48</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
